--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed1/result_data_RandomForest.xlsx
@@ -496,10 +496,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.1467</v>
+        <v>-21.213</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4771</v>
+        <v>4.627800000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.017299999999999</v>
+        <v>5.169299999999998</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.4512</v>
+        <v>-21.62710000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.034699999999996</v>
+        <v>5.0171</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.43240000000001</v>
+        <v>-21.52870000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.800600000000005</v>
+        <v>4.749300000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
